--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_64ha_100ha_18%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_64ha_100ha_18%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -1977,28 +1977,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1405.573508150049</v>
+        <v>1630.608012141575</v>
       </c>
       <c r="AB2" t="n">
-        <v>1923.167683377663</v>
+        <v>2231.069819560515</v>
       </c>
       <c r="AC2" t="n">
-        <v>1739.623258858895</v>
+        <v>2018.139647307817</v>
       </c>
       <c r="AD2" t="n">
-        <v>1405573.508150049</v>
+        <v>1630608.012141575</v>
       </c>
       <c r="AE2" t="n">
-        <v>1923167.683377663</v>
+        <v>2231069.819560516</v>
       </c>
       <c r="AF2" t="n">
         <v>3.450792076203805e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>46</v>
+        <v>45.48177083333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>1739623.258858895</v>
+        <v>2018139.647307817</v>
       </c>
     </row>
     <row r="3">
@@ -2083,28 +2083,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>700.699890320108</v>
+        <v>847.4935439565523</v>
       </c>
       <c r="AB3" t="n">
-        <v>958.7285026334247</v>
+        <v>1159.578055617748</v>
       </c>
       <c r="AC3" t="n">
-        <v>867.2287999259945</v>
+        <v>1048.909553467612</v>
       </c>
       <c r="AD3" t="n">
-        <v>700699.890320108</v>
+        <v>847493.5439565524</v>
       </c>
       <c r="AE3" t="n">
-        <v>958728.5026334247</v>
+        <v>1159578.055617748</v>
       </c>
       <c r="AF3" t="n">
         <v>5.450776082364681e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.79557291666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>867228.7999259945</v>
+        <v>1048909.553467612</v>
       </c>
     </row>
     <row r="4">
@@ -2189,28 +2189,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>569.0993060814238</v>
+        <v>696.2485973694671</v>
       </c>
       <c r="AB4" t="n">
-        <v>778.6667774700338</v>
+        <v>952.6380472411726</v>
       </c>
       <c r="AC4" t="n">
-        <v>704.3519130939791</v>
+        <v>861.719609048371</v>
       </c>
       <c r="AD4" t="n">
-        <v>569099.3060814239</v>
+        <v>696248.5973694671</v>
       </c>
       <c r="AE4" t="n">
-        <v>778666.7774700338</v>
+        <v>952638.0472411725</v>
       </c>
       <c r="AF4" t="n">
         <v>6.201011162785684e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.3125</v>
       </c>
       <c r="AH4" t="n">
-        <v>704351.9130939791</v>
+        <v>861719.609048371</v>
       </c>
     </row>
     <row r="5">
@@ -2295,28 +2295,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>564.6312670418848</v>
+        <v>691.7805583299282</v>
       </c>
       <c r="AB5" t="n">
-        <v>772.553409340166</v>
+        <v>946.5246791113047</v>
       </c>
       <c r="AC5" t="n">
-        <v>698.8219962382599</v>
+        <v>856.1896921926516</v>
       </c>
       <c r="AD5" t="n">
-        <v>564631.2670418848</v>
+        <v>691780.5583299282</v>
       </c>
       <c r="AE5" t="n">
-        <v>772553.409340166</v>
+        <v>946524.6791113047</v>
       </c>
       <c r="AF5" t="n">
         <v>6.246574925703283e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>25.12369791666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>698821.9962382598</v>
+        <v>856189.6921926516</v>
       </c>
     </row>
   </sheetData>
@@ -2592,28 +2592,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1016.795964813386</v>
+        <v>1200.659078857736</v>
       </c>
       <c r="AB2" t="n">
-        <v>1391.225096929733</v>
+        <v>1642.794721033325</v>
       </c>
       <c r="AC2" t="n">
-        <v>1258.448526275446</v>
+        <v>1486.008698534776</v>
       </c>
       <c r="AD2" t="n">
-        <v>1016795.964813386</v>
+        <v>1200659.078857736</v>
       </c>
       <c r="AE2" t="n">
-        <v>1391225.096929733</v>
+        <v>1642794.721033325</v>
       </c>
       <c r="AF2" t="n">
         <v>4.502526284523226e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>39</v>
+        <v>38.13802083333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>1258448.526275446</v>
+        <v>1486008.698534776</v>
       </c>
     </row>
     <row r="3">
@@ -2698,28 +2698,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>571.5427569378303</v>
+        <v>697.3225760815313</v>
       </c>
       <c r="AB3" t="n">
-        <v>782.010014729213</v>
+        <v>954.1075122956156</v>
       </c>
       <c r="AC3" t="n">
-        <v>707.3760764814052</v>
+        <v>863.0488304204251</v>
       </c>
       <c r="AD3" t="n">
-        <v>571542.7569378302</v>
+        <v>697322.5760815314</v>
       </c>
       <c r="AE3" t="n">
-        <v>782010.014729213</v>
+        <v>954107.5122956156</v>
       </c>
       <c r="AF3" t="n">
         <v>6.513614244755521e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.3671875</v>
       </c>
       <c r="AH3" t="n">
-        <v>707376.0764814052</v>
+        <v>863048.8304204252</v>
       </c>
     </row>
     <row r="4">
@@ -2804,28 +2804,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>543.5788740150691</v>
+        <v>669.4260129664746</v>
       </c>
       <c r="AB4" t="n">
-        <v>743.7485964348452</v>
+        <v>915.9382039320894</v>
       </c>
       <c r="AC4" t="n">
-        <v>672.7662742488141</v>
+        <v>828.522347276153</v>
       </c>
       <c r="AD4" t="n">
-        <v>543578.8740150691</v>
+        <v>669426.0129664745</v>
       </c>
       <c r="AE4" t="n">
-        <v>743748.5964348452</v>
+        <v>915938.2039320894</v>
       </c>
       <c r="AF4" t="n">
         <v>6.697207794115657e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.64453125</v>
       </c>
       <c r="AH4" t="n">
-        <v>672766.2742488141</v>
+        <v>828522.347276153</v>
       </c>
     </row>
   </sheetData>
@@ -3101,28 +3101,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>545.2954648396892</v>
+        <v>685.5262057091018</v>
       </c>
       <c r="AB2" t="n">
-        <v>746.0973117317329</v>
+        <v>937.9671979329258</v>
       </c>
       <c r="AC2" t="n">
-        <v>674.8908314542094</v>
+        <v>848.4489250074371</v>
       </c>
       <c r="AD2" t="n">
-        <v>545295.4648396892</v>
+        <v>685526.2057091017</v>
       </c>
       <c r="AE2" t="n">
-        <v>746097.3117317329</v>
+        <v>937967.1979329259</v>
       </c>
       <c r="AF2" t="n">
         <v>8.191749082096119e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.2578125</v>
       </c>
       <c r="AH2" t="n">
-        <v>674890.8314542094</v>
+        <v>848448.9250074371</v>
       </c>
     </row>
   </sheetData>
@@ -3398,28 +3398,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>598.8186434613415</v>
+        <v>740.9557101620395</v>
       </c>
       <c r="AB2" t="n">
-        <v>819.3300859978679</v>
+        <v>1013.808291302586</v>
       </c>
       <c r="AC2" t="n">
-        <v>741.1343725272286</v>
+        <v>917.0518508695396</v>
       </c>
       <c r="AD2" t="n">
-        <v>598818.6434613415</v>
+        <v>740955.7101620395</v>
       </c>
       <c r="AE2" t="n">
-        <v>819330.0859978679</v>
+        <v>1013808.291302586</v>
       </c>
       <c r="AF2" t="n">
         <v>7.08129445780067e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.31640625</v>
       </c>
       <c r="AH2" t="n">
-        <v>741134.3725272286</v>
+        <v>917051.8508695397</v>
       </c>
     </row>
     <row r="3">
@@ -3504,28 +3504,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>534.27651567002</v>
+        <v>666.9310122422391</v>
       </c>
       <c r="AB3" t="n">
-        <v>731.020699356063</v>
+        <v>912.5244338695272</v>
       </c>
       <c r="AC3" t="n">
-        <v>661.253109803515</v>
+        <v>825.4343826371054</v>
       </c>
       <c r="AD3" t="n">
-        <v>534276.51567002</v>
+        <v>666931.0122422392</v>
       </c>
       <c r="AE3" t="n">
-        <v>731020.699356063</v>
+        <v>912524.4338695272</v>
       </c>
       <c r="AF3" t="n">
         <v>7.616640191271214e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.25260416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>661253.109803515</v>
+        <v>825434.3826371054</v>
       </c>
     </row>
   </sheetData>
@@ -3801,28 +3801,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>567.489271593152</v>
+        <v>724.6920750056023</v>
       </c>
       <c r="AB2" t="n">
-        <v>776.4638572534718</v>
+        <v>991.555668180604</v>
       </c>
       <c r="AC2" t="n">
-        <v>702.3592364910679</v>
+        <v>896.9229868665673</v>
       </c>
       <c r="AD2" t="n">
-        <v>567489.271593152</v>
+        <v>724692.0750056023</v>
       </c>
       <c r="AE2" t="n">
-        <v>776463.8572534719</v>
+        <v>991555.668180604</v>
       </c>
       <c r="AF2" t="n">
         <v>8.58719413684587e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>31.97265625</v>
       </c>
       <c r="AH2" t="n">
-        <v>702359.2364910679</v>
+        <v>896922.9868665673</v>
       </c>
     </row>
   </sheetData>
@@ -4098,28 +4098,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1094.587654200451</v>
+        <v>1298.406826038252</v>
       </c>
       <c r="AB2" t="n">
-        <v>1497.663118276238</v>
+        <v>1776.537501051964</v>
       </c>
       <c r="AC2" t="n">
-        <v>1354.728252251342</v>
+        <v>1606.987255337607</v>
       </c>
       <c r="AD2" t="n">
-        <v>1094587.654200451</v>
+        <v>1298406.826038252</v>
       </c>
       <c r="AE2" t="n">
-        <v>1497663.118276238</v>
+        <v>1776537.501051964</v>
       </c>
       <c r="AF2" t="n">
         <v>4.213053840243364e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>40</v>
+        <v>39.77864583333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>1354728.252251342</v>
+        <v>1606987.255337607</v>
       </c>
     </row>
     <row r="3">
@@ -4204,28 +4204,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>597.1452975874312</v>
+        <v>733.0361339522251</v>
       </c>
       <c r="AB3" t="n">
-        <v>817.0405403503738</v>
+        <v>1002.972377745274</v>
       </c>
       <c r="AC3" t="n">
-        <v>739.0633379029341</v>
+        <v>907.2501016938373</v>
       </c>
       <c r="AD3" t="n">
-        <v>597145.2975874312</v>
+        <v>733036.1339522251</v>
       </c>
       <c r="AE3" t="n">
-        <v>817040.5403503738</v>
+        <v>1002972.377745274</v>
       </c>
       <c r="AF3" t="n">
         <v>6.226526507096398e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.9140625</v>
       </c>
       <c r="AH3" t="n">
-        <v>739063.3379029341</v>
+        <v>907250.1016938373</v>
       </c>
     </row>
     <row r="4">
@@ -4310,28 +4310,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>547.6184342780226</v>
+        <v>673.7330221362853</v>
       </c>
       <c r="AB4" t="n">
-        <v>749.2757009994394</v>
+        <v>921.8312438900587</v>
       </c>
       <c r="AC4" t="n">
-        <v>677.7658797111034</v>
+        <v>833.8529637714673</v>
       </c>
       <c r="AD4" t="n">
-        <v>547618.4342780226</v>
+        <v>673733.0221362853</v>
       </c>
       <c r="AE4" t="n">
-        <v>749275.7009994395</v>
+        <v>921831.2438900587</v>
       </c>
       <c r="AF4" t="n">
         <v>6.580467304452947e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.46875</v>
       </c>
       <c r="AH4" t="n">
-        <v>677765.8797111034</v>
+        <v>833852.9637714673</v>
       </c>
     </row>
   </sheetData>
@@ -4607,28 +4607,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>603.9325755644423</v>
+        <v>769.2082554554893</v>
       </c>
       <c r="AB2" t="n">
-        <v>826.3271935120921</v>
+        <v>1052.464670187415</v>
       </c>
       <c r="AC2" t="n">
-        <v>747.4636859207973</v>
+        <v>952.0189192081689</v>
       </c>
       <c r="AD2" t="n">
-        <v>603932.5755644423</v>
+        <v>769208.2554554893</v>
       </c>
       <c r="AE2" t="n">
-        <v>826327.1935120921</v>
+        <v>1052464.670187415</v>
       </c>
       <c r="AF2" t="n">
         <v>8.73890389644497e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>35</v>
+        <v>34.375</v>
       </c>
       <c r="AH2" t="n">
-        <v>747463.6859207973</v>
+        <v>952018.9192081689</v>
       </c>
     </row>
   </sheetData>
@@ -4904,28 +4904,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>785.7786793504921</v>
+        <v>948.6807384450889</v>
       </c>
       <c r="AB2" t="n">
-        <v>1075.137055196066</v>
+        <v>1298.026839180926</v>
       </c>
       <c r="AC2" t="n">
-        <v>972.5274836124868</v>
+        <v>1174.144979441608</v>
       </c>
       <c r="AD2" t="n">
-        <v>785778.6793504921</v>
+        <v>948680.7384450888</v>
       </c>
       <c r="AE2" t="n">
-        <v>1075137.055196066</v>
+        <v>1298026.839180926</v>
       </c>
       <c r="AF2" t="n">
         <v>5.58311989753546e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>34</v>
+        <v>33.44401041666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>972527.4836124867</v>
+        <v>1174144.979441609</v>
       </c>
     </row>
     <row r="3">
@@ -5010,28 +5010,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>537.2163953814227</v>
+        <v>661.798844760428</v>
       </c>
       <c r="AB3" t="n">
-        <v>735.0431724755433</v>
+        <v>905.5023759056633</v>
       </c>
       <c r="AC3" t="n">
-        <v>664.8916837340486</v>
+        <v>819.0825000297925</v>
       </c>
       <c r="AD3" t="n">
-        <v>537216.3953814227</v>
+        <v>661798.8447604279</v>
       </c>
       <c r="AE3" t="n">
-        <v>735043.1724755433</v>
+        <v>905502.3759056632</v>
       </c>
       <c r="AF3" t="n">
         <v>7.119661037586705e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.23046875</v>
       </c>
       <c r="AH3" t="n">
-        <v>664891.6837340486</v>
+        <v>819082.5000297925</v>
       </c>
     </row>
   </sheetData>
@@ -5307,28 +5307,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>930.6718805949962</v>
+        <v>1113.906948184899</v>
       </c>
       <c r="AB2" t="n">
-        <v>1273.386325375694</v>
+        <v>1524.096628612857</v>
       </c>
       <c r="AC2" t="n">
-        <v>1151.856121690769</v>
+        <v>1378.638985461099</v>
       </c>
       <c r="AD2" t="n">
-        <v>930671.8805949962</v>
+        <v>1113906.948184899</v>
       </c>
       <c r="AE2" t="n">
-        <v>1273386.325375694</v>
+        <v>1524096.628612857</v>
       </c>
       <c r="AF2" t="n">
         <v>4.833268779335119e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>37</v>
+        <v>36.47135416666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1151856.121690769</v>
+        <v>1378638.985461099</v>
       </c>
     </row>
     <row r="3">
@@ -5413,28 +5413,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>551.7230918764434</v>
+        <v>677.1199477033283</v>
       </c>
       <c r="AB3" t="n">
-        <v>754.8918746103116</v>
+        <v>926.4653848714972</v>
       </c>
       <c r="AC3" t="n">
-        <v>682.8460535949031</v>
+        <v>838.0448288416951</v>
       </c>
       <c r="AD3" t="n">
-        <v>551723.0918764434</v>
+        <v>677119.9477033283</v>
       </c>
       <c r="AE3" t="n">
-        <v>754891.8746103116</v>
+        <v>926465.3848714973</v>
       </c>
       <c r="AF3" t="n">
         <v>6.779084526426845e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.00260416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>682846.0535949031</v>
+        <v>838044.8288416951</v>
       </c>
     </row>
     <row r="4">
@@ -5519,28 +5519,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>538.1857249725306</v>
+        <v>673.2326602029883</v>
       </c>
       <c r="AB4" t="n">
-        <v>736.3694519859008</v>
+        <v>921.146626618511</v>
       </c>
       <c r="AC4" t="n">
-        <v>666.0913849893825</v>
+        <v>833.2336854114499</v>
       </c>
       <c r="AD4" t="n">
-        <v>538185.7249725306</v>
+        <v>673232.6602029883</v>
       </c>
       <c r="AE4" t="n">
-        <v>736369.4519859008</v>
+        <v>921146.626618511</v>
       </c>
       <c r="AF4" t="n">
         <v>6.831608285288094e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.80078125</v>
       </c>
       <c r="AH4" t="n">
-        <v>666091.3849893825</v>
+        <v>833233.6854114499</v>
       </c>
     </row>
   </sheetData>
@@ -5816,28 +5816,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1294.887220778312</v>
+        <v>1509.568105040793</v>
       </c>
       <c r="AB2" t="n">
-        <v>1771.721821861289</v>
+        <v>2065.457678761395</v>
       </c>
       <c r="AC2" t="n">
-        <v>1602.631177810041</v>
+        <v>1868.333296788466</v>
       </c>
       <c r="AD2" t="n">
-        <v>1294887.220778312</v>
+        <v>1509568.105040793</v>
       </c>
       <c r="AE2" t="n">
-        <v>1771721.821861289</v>
+        <v>2065457.678761395</v>
       </c>
       <c r="AF2" t="n">
         <v>3.683894113669152e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>44</v>
+        <v>43.49609375</v>
       </c>
       <c r="AH2" t="n">
-        <v>1602631.177810041</v>
+        <v>1868333.296788466</v>
       </c>
     </row>
     <row r="3">
@@ -5922,28 +5922,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>670.7092379489992</v>
+        <v>807.3216078160914</v>
       </c>
       <c r="AB3" t="n">
-        <v>917.6939689650701</v>
+        <v>1104.613040329626</v>
       </c>
       <c r="AC3" t="n">
-        <v>830.1105445586181</v>
+        <v>999.1903220947052</v>
       </c>
       <c r="AD3" t="n">
-        <v>670709.2379489992</v>
+        <v>807321.6078160914</v>
       </c>
       <c r="AE3" t="n">
-        <v>917693.9689650701</v>
+        <v>1104613.040329626</v>
       </c>
       <c r="AF3" t="n">
         <v>5.699600473299721e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.11197916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>830110.5445586181</v>
+        <v>999190.3220947052</v>
       </c>
     </row>
     <row r="4">
@@ -6028,28 +6028,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>558.1167194673926</v>
+        <v>684.9320889389329</v>
       </c>
       <c r="AB4" t="n">
-        <v>763.6399179471904</v>
+        <v>937.1543011573989</v>
       </c>
       <c r="AC4" t="n">
-        <v>690.7591959536661</v>
+        <v>847.7136099592586</v>
       </c>
       <c r="AD4" t="n">
-        <v>558116.7194673927</v>
+        <v>684932.0889389329</v>
       </c>
       <c r="AE4" t="n">
-        <v>763639.9179471903</v>
+        <v>937154.3011573988</v>
       </c>
       <c r="AF4" t="n">
         <v>6.351567035773639e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.22786458333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>690759.1959536661</v>
+        <v>847713.6099592586</v>
       </c>
     </row>
     <row r="5">
@@ -6134,28 +6134,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>560.1329019682771</v>
+        <v>686.9482714398173</v>
       </c>
       <c r="AB5" t="n">
-        <v>766.3985477925949</v>
+        <v>939.9129310028031</v>
       </c>
       <c r="AC5" t="n">
-        <v>693.2545460383864</v>
+        <v>850.2089600439789</v>
       </c>
       <c r="AD5" t="n">
-        <v>560132.9019682771</v>
+        <v>686948.2714398173</v>
       </c>
       <c r="AE5" t="n">
-        <v>766398.5477925949</v>
+        <v>939912.9310028031</v>
       </c>
       <c r="AF5" t="n">
         <v>6.344921849972657e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>25.25390625</v>
       </c>
       <c r="AH5" t="n">
-        <v>693254.5460383864</v>
+        <v>850208.9600439789</v>
       </c>
     </row>
   </sheetData>
@@ -6431,28 +6431,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>654.2797341903979</v>
+        <v>806.561440598914</v>
       </c>
       <c r="AB2" t="n">
-        <v>895.2143971040011</v>
+        <v>1103.572946006873</v>
       </c>
       <c r="AC2" t="n">
-        <v>809.7763914856922</v>
+        <v>998.2494929143342</v>
       </c>
       <c r="AD2" t="n">
-        <v>654279.7341903979</v>
+        <v>806561.4405989141</v>
       </c>
       <c r="AE2" t="n">
-        <v>895214.3971040011</v>
+        <v>1103572.946006873</v>
       </c>
       <c r="AF2" t="n">
         <v>6.523966222371412e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.61848958333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>809776.3914856922</v>
+        <v>998249.4929143342</v>
       </c>
     </row>
     <row r="3">
@@ -6537,28 +6537,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>528.6114497036845</v>
+        <v>661.8536721337885</v>
       </c>
       <c r="AB3" t="n">
-        <v>723.269506175851</v>
+        <v>905.5773931367081</v>
       </c>
       <c r="AC3" t="n">
-        <v>654.2416796215545</v>
+        <v>819.1503577215937</v>
       </c>
       <c r="AD3" t="n">
-        <v>528611.4497036844</v>
+        <v>661853.6721337885</v>
       </c>
       <c r="AE3" t="n">
-        <v>723269.506175851</v>
+        <v>905577.3931367081</v>
       </c>
       <c r="AF3" t="n">
         <v>7.436149431660328e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.86197916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>654241.6796215544</v>
+        <v>819150.3577215937</v>
       </c>
     </row>
   </sheetData>
@@ -6834,28 +6834,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>538.1269087528876</v>
+        <v>679.0052586373238</v>
       </c>
       <c r="AB2" t="n">
-        <v>736.2889770393965</v>
+        <v>929.0449504654382</v>
       </c>
       <c r="AC2" t="n">
-        <v>666.0185904588254</v>
+        <v>840.3782043157935</v>
       </c>
       <c r="AD2" t="n">
-        <v>538126.9087528876</v>
+        <v>679005.2586373237</v>
       </c>
       <c r="AE2" t="n">
-        <v>736288.9770393965</v>
+        <v>929044.9504654382</v>
       </c>
       <c r="AF2" t="n">
         <v>7.977452886510845e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.47005208333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>666018.5904588255</v>
+        <v>840378.2043157935</v>
       </c>
     </row>
     <row r="3">
@@ -6940,28 +6940,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>539.1163508303679</v>
+        <v>679.9947007148041</v>
       </c>
       <c r="AB3" t="n">
-        <v>737.6427753409088</v>
+        <v>930.3987487669503</v>
       </c>
       <c r="AC3" t="n">
-        <v>667.2431841505091</v>
+        <v>841.6027980074772</v>
       </c>
       <c r="AD3" t="n">
-        <v>539116.3508303679</v>
+        <v>679994.7007148041</v>
       </c>
       <c r="AE3" t="n">
-        <v>737642.7753409088</v>
+        <v>930398.7487669503</v>
       </c>
       <c r="AF3" t="n">
         <v>7.989663629580375e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.43098958333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>667243.1841505092</v>
+        <v>841602.7980074772</v>
       </c>
     </row>
   </sheetData>
@@ -11690,28 +11690,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>554.5196396464705</v>
+        <v>694.0418311035507</v>
       </c>
       <c r="AB2" t="n">
-        <v>758.7182346442431</v>
+        <v>949.6186522804888</v>
       </c>
       <c r="AC2" t="n">
-        <v>686.3072311975262</v>
+        <v>858.9883809049876</v>
       </c>
       <c r="AD2" t="n">
-        <v>554519.6396464705</v>
+        <v>694041.8311035507</v>
       </c>
       <c r="AE2" t="n">
-        <v>758718.2346442431</v>
+        <v>949618.6522804889</v>
       </c>
       <c r="AF2" t="n">
         <v>8.404616109817489e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.3515625</v>
       </c>
       <c r="AH2" t="n">
-        <v>686307.2311975262</v>
+        <v>858988.3809049876</v>
       </c>
     </row>
   </sheetData>
@@ -11987,28 +11987,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>659.9539057122157</v>
+        <v>842.2740493372139</v>
       </c>
       <c r="AB2" t="n">
-        <v>902.9780489069328</v>
+        <v>1152.436512811718</v>
       </c>
       <c r="AC2" t="n">
-        <v>816.7990912569059</v>
+        <v>1042.449589483771</v>
       </c>
       <c r="AD2" t="n">
-        <v>659953.9057122157</v>
+        <v>842274.0493372139</v>
       </c>
       <c r="AE2" t="n">
-        <v>902978.0489069328</v>
+        <v>1152436.512811718</v>
       </c>
       <c r="AF2" t="n">
         <v>8.745119041737209e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>39</v>
+        <v>38.58072916666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>816799.0912569058</v>
+        <v>1042449.589483771</v>
       </c>
     </row>
   </sheetData>
@@ -12284,28 +12284,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>850.5755492071239</v>
+        <v>1023.709217248253</v>
       </c>
       <c r="AB2" t="n">
-        <v>1163.794991170055</v>
+        <v>1400.684113902289</v>
       </c>
       <c r="AC2" t="n">
-        <v>1052.724030609313</v>
+        <v>1267.004787943955</v>
       </c>
       <c r="AD2" t="n">
-        <v>850575.5492071239</v>
+        <v>1023709.217248253</v>
       </c>
       <c r="AE2" t="n">
-        <v>1163794.991170055</v>
+        <v>1400684.113902289</v>
       </c>
       <c r="AF2" t="n">
         <v>5.192370590964812e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>35</v>
+        <v>34.90234375</v>
       </c>
       <c r="AH2" t="n">
-        <v>1052724.030609313</v>
+        <v>1267004.787943955</v>
       </c>
     </row>
     <row r="3">
@@ -12390,28 +12390,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>541.9471430400677</v>
+        <v>666.9454807311866</v>
       </c>
       <c r="AB3" t="n">
-        <v>741.5159901279583</v>
+        <v>912.5442302944097</v>
       </c>
       <c r="AC3" t="n">
-        <v>670.7467447543737</v>
+        <v>825.4522897189817</v>
       </c>
       <c r="AD3" t="n">
-        <v>541947.1430400676</v>
+        <v>666945.4807311867</v>
       </c>
       <c r="AE3" t="n">
-        <v>741515.9901279582</v>
+        <v>912544.2302944097</v>
       </c>
       <c r="AF3" t="n">
         <v>6.969836075808815e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.00260416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>670746.7447543737</v>
+        <v>825452.2897189817</v>
       </c>
     </row>
     <row r="4">
@@ -12496,28 +12496,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>533.2400247032336</v>
+        <v>667.8577865567127</v>
       </c>
       <c r="AB4" t="n">
-        <v>729.6025266885515</v>
+        <v>913.7924873729868</v>
       </c>
       <c r="AC4" t="n">
-        <v>659.9702855449731</v>
+        <v>826.5814148939193</v>
       </c>
       <c r="AD4" t="n">
-        <v>533240.0247032336</v>
+        <v>667857.7865567127</v>
       </c>
       <c r="AE4" t="n">
-        <v>729602.5266885515</v>
+        <v>913792.4873729867</v>
       </c>
       <c r="AF4" t="n">
         <v>6.971784745878338e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.99609375</v>
       </c>
       <c r="AH4" t="n">
-        <v>659970.2855449731</v>
+        <v>826581.4148939193</v>
       </c>
     </row>
   </sheetData>
@@ -12793,28 +12793,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1191.897232961286</v>
+        <v>1406.028135568843</v>
       </c>
       <c r="AB2" t="n">
-        <v>1630.806376932443</v>
+        <v>1923.789724668804</v>
       </c>
       <c r="AC2" t="n">
-        <v>1475.164505169135</v>
+        <v>1740.185933402249</v>
       </c>
       <c r="AD2" t="n">
-        <v>1191897.232961286</v>
+        <v>1406028.135568843</v>
       </c>
       <c r="AE2" t="n">
-        <v>1630806.376932443</v>
+        <v>1923789.724668804</v>
       </c>
       <c r="AF2" t="n">
         <v>3.936168890966875e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>42</v>
+        <v>41.6015625</v>
       </c>
       <c r="AH2" t="n">
-        <v>1475164.505169135</v>
+        <v>1740185.933402249</v>
       </c>
     </row>
     <row r="3">
@@ -12899,28 +12899,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>633.2180737988306</v>
+        <v>769.4251916737843</v>
       </c>
       <c r="AB3" t="n">
-        <v>866.3969041813804</v>
+        <v>1052.761491891836</v>
       </c>
       <c r="AC3" t="n">
-        <v>783.709199642001</v>
+        <v>952.2874126657125</v>
       </c>
       <c r="AD3" t="n">
-        <v>633218.0737988306</v>
+        <v>769425.1916737843</v>
       </c>
       <c r="AE3" t="n">
-        <v>866396.9041813804</v>
+        <v>1052761.491891836</v>
       </c>
       <c r="AF3" t="n">
         <v>5.956574599827173e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.49348958333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>783709.199642001</v>
+        <v>952287.4126657125</v>
       </c>
     </row>
     <row r="4">
@@ -13005,28 +13005,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>553.5957489631334</v>
+        <v>680.0665380451271</v>
       </c>
       <c r="AB4" t="n">
-        <v>757.4541266521209</v>
+        <v>930.4970397715376</v>
       </c>
       <c r="AC4" t="n">
-        <v>685.1637678979853</v>
+        <v>841.691708256539</v>
       </c>
       <c r="AD4" t="n">
-        <v>553595.7489631333</v>
+        <v>680066.5380451271</v>
       </c>
       <c r="AE4" t="n">
-        <v>757454.1266521208</v>
+        <v>930497.0397715376</v>
       </c>
       <c r="AF4" t="n">
         <v>6.454381235513743e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.37109375</v>
       </c>
       <c r="AH4" t="n">
-        <v>685163.7678979853</v>
+        <v>841691.708256539</v>
       </c>
     </row>
     <row r="5">
@@ -13111,28 +13111,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>554.5268288659255</v>
+        <v>680.9976179479193</v>
       </c>
       <c r="AB5" t="n">
-        <v>758.7280712514676</v>
+        <v>931.7709843708844</v>
       </c>
       <c r="AC5" t="n">
-        <v>686.3161290127628</v>
+        <v>842.8440693713166</v>
       </c>
       <c r="AD5" t="n">
-        <v>554526.8288659255</v>
+        <v>680997.6179479193</v>
       </c>
       <c r="AE5" t="n">
-        <v>758728.0712514676</v>
+        <v>931770.9843708845</v>
       </c>
       <c r="AF5" t="n">
         <v>6.456645136332935e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>25.36458333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>686316.1290127628</v>
+        <v>842844.0693713166</v>
       </c>
     </row>
   </sheetData>
@@ -13408,28 +13408,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>791.0483951934223</v>
+        <v>1016.721798299289</v>
       </c>
       <c r="AB2" t="n">
-        <v>1082.347312895818</v>
+        <v>1391.12361903315</v>
       </c>
       <c r="AC2" t="n">
-        <v>979.0496044370348</v>
+        <v>1258.356733286887</v>
       </c>
       <c r="AD2" t="n">
-        <v>791048.3951934222</v>
+        <v>1016721.798299289</v>
       </c>
       <c r="AE2" t="n">
-        <v>1082347.312895818</v>
+        <v>1391123.61903315</v>
       </c>
       <c r="AF2" t="n">
         <v>8.317442003805352e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>48</v>
+        <v>47.76692708333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>979049.6044370348</v>
+        <v>1258356.733286887</v>
       </c>
     </row>
   </sheetData>
@@ -13705,28 +13705,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>551.3773883200707</v>
+        <v>683.5135785595697</v>
       </c>
       <c r="AB2" t="n">
-        <v>754.418867753118</v>
+        <v>935.2134326760927</v>
       </c>
       <c r="AC2" t="n">
-        <v>682.4181898482908</v>
+        <v>845.9579752417823</v>
       </c>
       <c r="AD2" t="n">
-        <v>551377.3883200707</v>
+        <v>683513.5785595698</v>
       </c>
       <c r="AE2" t="n">
-        <v>754418.8677531179</v>
+        <v>935213.4326760927</v>
       </c>
       <c r="AF2" t="n">
         <v>7.648893588889031e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.31380208333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>682418.1898482908</v>
+        <v>845957.9752417823</v>
       </c>
     </row>
     <row r="3">
@@ -13811,28 +13811,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>531.4865739722151</v>
+        <v>673.0648610423715</v>
       </c>
       <c r="AB3" t="n">
-        <v>727.2033780415852</v>
+        <v>920.9170364041787</v>
       </c>
       <c r="AC3" t="n">
-        <v>657.800108277647</v>
+        <v>833.0260069649415</v>
       </c>
       <c r="AD3" t="n">
-        <v>531486.5739722151</v>
+        <v>673064.8610423715</v>
       </c>
       <c r="AE3" t="n">
-        <v>727203.3780415852</v>
+        <v>920917.0364041787</v>
       </c>
       <c r="AF3" t="n">
         <v>7.796608292619479e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.77994791666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>657800.1082776471</v>
+        <v>833026.0069649415</v>
       </c>
     </row>
   </sheetData>
@@ -14108,28 +14108,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>723.3582577401553</v>
+        <v>876.170105118406</v>
       </c>
       <c r="AB2" t="n">
-        <v>989.7306805541547</v>
+        <v>1198.814591719986</v>
       </c>
       <c r="AC2" t="n">
-        <v>895.2721734977999</v>
+        <v>1084.401409633077</v>
       </c>
       <c r="AD2" t="n">
-        <v>723358.2577401553</v>
+        <v>876170.105118406</v>
       </c>
       <c r="AE2" t="n">
-        <v>989730.6805541547</v>
+        <v>1198814.591719986</v>
       </c>
       <c r="AF2" t="n">
         <v>6.025532268971947e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>33</v>
+        <v>32.00520833333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>895272.1734977999</v>
+        <v>1084401.409633077</v>
       </c>
     </row>
     <row r="3">
@@ -14214,28 +14214,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>532.398593921646</v>
+        <v>666.0322145640906</v>
       </c>
       <c r="AB3" t="n">
-        <v>728.4512439718771</v>
+        <v>911.294659234129</v>
       </c>
       <c r="AC3" t="n">
-        <v>658.9288796349426</v>
+        <v>824.3219759669104</v>
       </c>
       <c r="AD3" t="n">
-        <v>532398.593921646</v>
+        <v>666032.2145640906</v>
       </c>
       <c r="AE3" t="n">
-        <v>728451.2439718771</v>
+        <v>911294.659234129</v>
       </c>
       <c r="AF3" t="n">
         <v>7.281592092985766e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.484375</v>
       </c>
       <c r="AH3" t="n">
-        <v>658928.8796349426</v>
+        <v>824321.9759669104</v>
       </c>
     </row>
   </sheetData>
